--- a/biology/Botanique/Anogeissus/Anogeissus.xlsx
+++ b/biology/Botanique/Anogeissus/Anogeissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anogeissus est un genre d'arbres de la famille des Combretaceae. Il regroupe 10 à 12 espèces[1] réparties en Asie et en Afrique tropicale[2]. C'est aussi un synonyme taxonomique du genre Terminalia selon Plants of the World Online[3]. 
-Ce sont des arbres et des arbustes dont les fleurs tubulaires sont dépourvues de pétales. Ils donnent des fruits secs présentant des crêtes ou des ailes[1].
-Le bois d'essieu (A. latifolia) est utilisé pour son bois et ses tanins et comme fourrage[4]. Le bouleau africain (A. leiocarpa) est quant à lui utilisé pour son bois et pour fabriquer des colorants jaunes et des composés médicinaux[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anogeissus est un genre d'arbres de la famille des Combretaceae. Il regroupe 10 à 12 espèces réparties en Asie et en Afrique tropicale. C'est aussi un synonyme taxonomique du genre Terminalia selon Plants of the World Online. 
+Ce sont des arbres et des arbustes dont les fleurs tubulaires sont dépourvues de pétales. Ils donnent des fruits secs présentant des crêtes ou des ailes.
+Le bois d'essieu (A. latifolia) est utilisé pour son bois et ses tanins et comme fourrage. Le bouleau africain (A. leiocarpa) est quant à lui utilisé pour son bois et pour fabriquer des colorants jaunes et des composés médicinaux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anogeissus acuminata
 Anogeissus bentii
